--- a/public/templates/att_report-7.xlsx
+++ b/public/templates/att_report-7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\SideProjects\report-projects\meir-att\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A86157A-F976-4AFC-BD67-8BC14F7417D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DB3E92-B89F-4821-8770-F35A3DE4F870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21948" windowHeight="13176" xr2:uid="{2F61205C-6BC3-4C3D-9F5C-D8E7A2EA9148}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21960" windowHeight="13176" xr2:uid="{2F61205C-6BC3-4C3D-9F5C-D8E7A2EA9148}"/>
   </bookViews>
   <sheets>
     <sheet name="גליון" sheetId="1" r:id="rId1"/>
@@ -60,12 +60,6 @@
     <t>${table:rows.klass_id}</t>
   </si>
   <si>
-    <t>${lesson.klass.name}</t>
-  </si>
-  <si>
-    <t>${lesson.teacher.name}</t>
-  </si>
-  <si>
     <t>${lesson.name}</t>
   </si>
   <si>
@@ -73,6 +67,12 @@
   </si>
   <si>
     <t>הערות</t>
+  </si>
+  <si>
+    <t>${klass.name}</t>
+  </si>
+  <si>
+    <t>${teacher.name}</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,7 +454,7 @@
   <dimension ref="A1:H315"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -488,23 +488,23 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
